--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H2">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I2">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J2">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N2">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O2">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P2">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q2">
-        <v>0.01436852188</v>
+        <v>0.002428927254</v>
       </c>
       <c r="R2">
-        <v>0.08621113127999999</v>
+        <v>0.014573563524</v>
       </c>
       <c r="S2">
-        <v>0.01691509261856224</v>
+        <v>0.004901372932990176</v>
       </c>
       <c r="T2">
-        <v>0.01383734630682731</v>
+        <v>0.004294835512480501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H3">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I3">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J3">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N3">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O3">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P3">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q3">
-        <v>0.026984795136</v>
+        <v>0.013434961332</v>
       </c>
       <c r="R3">
-        <v>0.107939180544</v>
+        <v>0.05373984532800001</v>
       </c>
       <c r="S3">
-        <v>0.03176738100345002</v>
+        <v>0.02711063319001914</v>
       </c>
       <c r="T3">
-        <v>0.01732481408243603</v>
+        <v>0.01583715580405658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.021957</v>
+      </c>
+      <c r="H4">
+        <v>0.043914</v>
+      </c>
+      <c r="I4">
+        <v>0.0499528689286042</v>
+      </c>
+      <c r="J4">
+        <v>0.03585269972935351</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.051977</v>
-      </c>
-      <c r="H4">
-        <v>0.103954</v>
-      </c>
-      <c r="I4">
-        <v>0.08717138685919197</v>
-      </c>
-      <c r="J4">
-        <v>0.06264791299175514</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N4">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O4">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P4">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q4">
-        <v>0.03269439928333333</v>
+        <v>0.004217215119</v>
       </c>
       <c r="R4">
-        <v>0.1961663957</v>
+        <v>0.025303290714</v>
       </c>
       <c r="S4">
-        <v>0.03848891323717971</v>
+        <v>0.008509988927343785</v>
       </c>
       <c r="T4">
-        <v>0.03148575260249178</v>
+        <v>0.007456890784614203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.021957</v>
+      </c>
+      <c r="H5">
+        <v>0.043914</v>
+      </c>
+      <c r="I5">
+        <v>0.0499528689286042</v>
+      </c>
+      <c r="J5">
+        <v>0.03585269972935351</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.3153626666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.9460879999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.5288993404187698</v>
-      </c>
-      <c r="J5">
-        <v>0.5701602507507517</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N5">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O5">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P5">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q5">
-        <v>0.08717885557333331</v>
+        <v>0.004673569407</v>
       </c>
       <c r="R5">
-        <v>0.7846097001599999</v>
+        <v>0.028041416442</v>
       </c>
       <c r="S5">
-        <v>0.1026297923139742</v>
+        <v>0.009430873878251091</v>
       </c>
       <c r="T5">
-        <v>0.1259340409482429</v>
+        <v>0.008263817628202231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H6">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I6">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J6">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N6">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O6">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P6">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q6">
-        <v>0.163726204928</v>
+        <v>0.034886048912</v>
       </c>
       <c r="R6">
-        <v>0.9823572295680001</v>
+        <v>0.313974440208</v>
       </c>
       <c r="S6">
-        <v>0.1927438287370184</v>
+        <v>0.07039714161659621</v>
       </c>
       <c r="T6">
-        <v>0.1576735739425491</v>
+        <v>0.09252840416112522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H7">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I7">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J7">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6290166666666667</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N7">
-        <v>1.88705</v>
+        <v>1.223752</v>
       </c>
       <c r="O7">
-        <v>0.4415315004607061</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P7">
-        <v>0.5025826256436589</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q7">
-        <v>0.1983683733777777</v>
+        <v>0.1929628470293334</v>
       </c>
       <c r="R7">
-        <v>1.7853153604</v>
+        <v>1.157777082176</v>
       </c>
       <c r="S7">
-        <v>0.2335257193677772</v>
+        <v>0.389382956589073</v>
       </c>
       <c r="T7">
-        <v>0.2865526358599597</v>
+        <v>0.3411974099455362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01420033333333333</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.042601</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.02381558671199721</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J8">
-        <v>0.0256735069488597</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.27644</v>
+        <v>0.192067</v>
       </c>
       <c r="N8">
-        <v>0.8293199999999999</v>
+        <v>0.576201</v>
       </c>
       <c r="O8">
-        <v>0.1940440920813294</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P8">
-        <v>0.2208748168298663</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q8">
-        <v>0.003925540146666667</v>
+        <v>0.06057076129866667</v>
       </c>
       <c r="R8">
-        <v>0.03532986132</v>
+        <v>0.545136851688</v>
       </c>
       <c r="S8">
-        <v>0.004621273900913673</v>
+        <v>0.1222267523537342</v>
       </c>
       <c r="T8">
-        <v>0.005670631144709684</v>
+        <v>0.1606520674189116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01420033333333333</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.042601</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.02381558671199721</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J9">
-        <v>0.0256735069488597</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5191680000000001</v>
+        <v>0.212851</v>
       </c>
       <c r="N9">
-        <v>1.038336</v>
+        <v>0.638553</v>
       </c>
       <c r="O9">
-        <v>0.3644244074579643</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P9">
-        <v>0.2765425575264748</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q9">
-        <v>0.007372358656000002</v>
+        <v>0.06712525896266668</v>
       </c>
       <c r="R9">
-        <v>0.04423415193600001</v>
+        <v>0.604127330664</v>
       </c>
       <c r="S9">
-        <v>0.008678981075783354</v>
+        <v>0.1354531828228935</v>
       </c>
       <c r="T9">
-        <v>0.007099817272311383</v>
+        <v>0.1780365872439448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H10">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I10">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J10">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,95 +1057,95 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6290166666666667</v>
+        <v>0.110622</v>
       </c>
       <c r="N10">
-        <v>1.88705</v>
+        <v>0.331866</v>
       </c>
       <c r="O10">
-        <v>0.4415315004607061</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P10">
-        <v>0.5025826256436589</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q10">
-        <v>0.008932246338888889</v>
+        <v>0.0004349657039999999</v>
       </c>
       <c r="R10">
-        <v>0.08039021705</v>
+        <v>0.003914691336</v>
       </c>
       <c r="S10">
-        <v>0.01051533173530018</v>
+        <v>0.0008777245695002673</v>
       </c>
       <c r="T10">
-        <v>0.01290305853183863</v>
+        <v>0.001153661240270073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.0774725</v>
+        <v>0.003932</v>
       </c>
       <c r="H11">
-        <v>0.154945</v>
+        <v>0.011796</v>
       </c>
       <c r="I11">
-        <v>0.129930262778705</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J11">
-        <v>0.09337765625668566</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.27644</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N11">
-        <v>0.8293199999999999</v>
+        <v>1.223752</v>
       </c>
       <c r="O11">
-        <v>0.1940440920813294</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P11">
-        <v>0.2208748168298663</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q11">
-        <v>0.0214164979</v>
+        <v>0.002405896432</v>
       </c>
       <c r="R11">
-        <v>0.1284989874</v>
+        <v>0.014435378592</v>
       </c>
       <c r="S11">
-        <v>0.02521219987478237</v>
+        <v>0.004854898652054253</v>
       </c>
       <c r="T11">
-        <v>0.02062477272169766</v>
+        <v>0.004254112352886354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0774725</v>
+        <v>0.003932</v>
       </c>
       <c r="H12">
-        <v>0.154945</v>
+        <v>0.011796</v>
       </c>
       <c r="I12">
-        <v>0.129930262778705</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J12">
-        <v>0.09337765625668566</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5191680000000001</v>
+        <v>0.192067</v>
       </c>
       <c r="N12">
-        <v>1.038336</v>
+        <v>0.576201</v>
       </c>
       <c r="O12">
-        <v>0.3644244074579643</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P12">
-        <v>0.2765425575264748</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q12">
-        <v>0.04022124288000001</v>
+        <v>0.0007552074439999999</v>
       </c>
       <c r="R12">
-        <v>0.16088497152</v>
+        <v>0.006796866995999999</v>
       </c>
       <c r="S12">
-        <v>0.04734975902398717</v>
+        <v>0.001523945733129105</v>
       </c>
       <c r="T12">
-        <v>0.02582289587705188</v>
+        <v>0.002003039661504512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0774725</v>
+        <v>0.003932</v>
       </c>
       <c r="H13">
-        <v>0.154945</v>
+        <v>0.011796</v>
       </c>
       <c r="I13">
-        <v>0.129930262778705</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J13">
-        <v>0.09337765625668566</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6290166666666667</v>
+        <v>0.212851</v>
       </c>
       <c r="N13">
-        <v>1.88705</v>
+        <v>0.638553</v>
       </c>
       <c r="O13">
-        <v>0.4415315004607061</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P13">
-        <v>0.5025826256436589</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q13">
-        <v>0.04873149370833333</v>
+        <v>0.000836930132</v>
       </c>
       <c r="R13">
-        <v>0.29238896225</v>
+        <v>0.007532371188</v>
       </c>
       <c r="S13">
-        <v>0.05736830387993545</v>
+        <v>0.001688855312168479</v>
       </c>
       <c r="T13">
-        <v>0.04692998765793611</v>
+        <v>0.002219793066955265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>22</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.07186100000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.143722</v>
+      </c>
+      <c r="I14">
+        <v>0.163486046093657</v>
+      </c>
+      <c r="J14">
+        <v>0.1173389285991289</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.06386066666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.191582</v>
-      </c>
-      <c r="I14">
-        <v>0.1071016580234701</v>
-      </c>
-      <c r="J14">
-        <v>0.115456956603752</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N14">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O14">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P14">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q14">
-        <v>0.01765364269333333</v>
+        <v>0.007949407542000001</v>
       </c>
       <c r="R14">
-        <v>0.15888278424</v>
+        <v>0.047696445252</v>
       </c>
       <c r="S14">
-        <v>0.02078244399156929</v>
+        <v>0.01604124244375858</v>
       </c>
       <c r="T14">
-        <v>0.02550153414158754</v>
+        <v>0.01405616317176123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06386066666666666</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H15">
-        <v>0.191582</v>
+        <v>0.143722</v>
       </c>
       <c r="I15">
-        <v>0.1071016580234701</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J15">
-        <v>0.115456956603752</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,157 +1367,157 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N15">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O15">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P15">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q15">
-        <v>0.033154414592</v>
+        <v>0.04397002123600001</v>
       </c>
       <c r="R15">
-        <v>0.198926487552</v>
+        <v>0.175880084944</v>
       </c>
       <c r="S15">
-        <v>0.03903045826296862</v>
+        <v>0.0887278413111065</v>
       </c>
       <c r="T15">
-        <v>0.03192876206342479</v>
+        <v>0.05183193757049277</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06386066666666666</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H16">
-        <v>0.191582</v>
+        <v>0.143722</v>
       </c>
       <c r="I16">
-        <v>0.1071016580234701</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J16">
-        <v>0.115456956603752</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N16">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O16">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P16">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q16">
-        <v>0.04016942367777777</v>
+        <v>0.013802126687</v>
       </c>
       <c r="R16">
-        <v>0.3615248131</v>
+        <v>0.08281276012200001</v>
       </c>
       <c r="S16">
-        <v>0.04728875576893218</v>
+        <v>0.02785154230121837</v>
       </c>
       <c r="T16">
-        <v>0.05802666039873965</v>
+        <v>0.02440495644546893</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.073389</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H17">
-        <v>0.220167</v>
+        <v>0.143722</v>
       </c>
       <c r="I17">
-        <v>0.1230817652078658</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J17">
-        <v>0.1326837164481959</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N17">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O17">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P17">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q17">
-        <v>0.02028765516</v>
+        <v>0.015295685711</v>
       </c>
       <c r="R17">
-        <v>0.18258889644</v>
+        <v>0.09177411426600002</v>
       </c>
       <c r="S17">
-        <v>0.02388328938152768</v>
+        <v>0.03086542003757351</v>
       </c>
       <c r="T17">
-        <v>0.02930649156680118</v>
+        <v>0.02704587141140596</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.073389</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H18">
-        <v>0.220167</v>
+        <v>0.039814</v>
       </c>
       <c r="I18">
-        <v>0.1230817652078658</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J18">
-        <v>0.1326837164481959</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N18">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O18">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P18">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q18">
-        <v>0.038101220352</v>
+        <v>0.001468101436</v>
       </c>
       <c r="R18">
-        <v>0.228607322112</v>
+        <v>0.013212912924</v>
       </c>
       <c r="S18">
-        <v>0.04485399935475678</v>
+        <v>0.002962506443716823</v>
       </c>
       <c r="T18">
-        <v>0.03669269428870168</v>
+        <v>0.003893851188548042</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.039814</v>
+      </c>
+      <c r="I19">
+        <v>0.03019270276029585</v>
+      </c>
+      <c r="J19">
+        <v>0.03250533741003964</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.223752</v>
+      </c>
+      <c r="O19">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P19">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q19">
+        <v>0.008120410354666669</v>
+      </c>
+      <c r="R19">
+        <v>0.04872246212800001</v>
+      </c>
+      <c r="S19">
+        <v>0.0163863118796955</v>
+      </c>
+      <c r="T19">
+        <v>0.0143585307916088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.039814</v>
+      </c>
+      <c r="I20">
+        <v>0.03019270276029585</v>
+      </c>
+      <c r="J20">
+        <v>0.03250533741003964</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.192067</v>
+      </c>
+      <c r="N20">
+        <v>0.576201</v>
+      </c>
+      <c r="O20">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P20">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q20">
+        <v>0.002548985179333333</v>
+      </c>
+      <c r="R20">
+        <v>0.022940866614</v>
+      </c>
+      <c r="S20">
+        <v>0.005143639828653967</v>
+      </c>
+      <c r="T20">
+        <v>0.006760683374291341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.039814</v>
+      </c>
+      <c r="I21">
+        <v>0.03019270276029585</v>
+      </c>
+      <c r="J21">
+        <v>0.03250533741003964</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.212851</v>
+      </c>
+      <c r="N21">
+        <v>0.638553</v>
+      </c>
+      <c r="O21">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P21">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q21">
+        <v>0.002824816571333334</v>
+      </c>
+      <c r="R21">
+        <v>0.025423349142</v>
+      </c>
+      <c r="S21">
+        <v>0.005700244608229554</v>
+      </c>
+      <c r="T21">
+        <v>0.007492272055591468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.01317033333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.039511</v>
+      </c>
+      <c r="I22">
+        <v>0.02996292456829379</v>
+      </c>
+      <c r="J22">
+        <v>0.032257959170344</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.110622</v>
+      </c>
+      <c r="N22">
+        <v>0.331866</v>
+      </c>
+      <c r="O22">
+        <v>0.0981199486258843</v>
+      </c>
+      <c r="P22">
+        <v>0.1197911327431839</v>
+      </c>
+      <c r="Q22">
+        <v>0.001456928614</v>
+      </c>
+      <c r="R22">
+        <v>0.013112357526</v>
+      </c>
+      <c r="S22">
+        <v>0.002939960619322233</v>
+      </c>
+      <c r="T22">
+        <v>0.003864217468998885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.01317033333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.039511</v>
+      </c>
+      <c r="I23">
+        <v>0.02996292456829379</v>
+      </c>
+      <c r="J23">
+        <v>0.032257959170344</v>
+      </c>
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.223752</v>
+      </c>
+      <c r="O23">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P23">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q23">
+        <v>0.008058610878666668</v>
+      </c>
+      <c r="R23">
+        <v>0.048351665272</v>
+      </c>
+      <c r="S23">
+        <v>0.016261605683394</v>
+      </c>
+      <c r="T23">
+        <v>0.01424925679678643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.01317033333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.039511</v>
+      </c>
+      <c r="I24">
+        <v>0.02996292456829379</v>
+      </c>
+      <c r="J24">
+        <v>0.032257959170344</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.073389</v>
-      </c>
-      <c r="H19">
-        <v>0.220167</v>
-      </c>
-      <c r="I19">
-        <v>0.1230817652078658</v>
-      </c>
-      <c r="J19">
-        <v>0.1326837164481959</v>
-      </c>
-      <c r="K19">
+      <c r="M24">
+        <v>0.192067</v>
+      </c>
+      <c r="N24">
+        <v>0.576201</v>
+      </c>
+      <c r="O24">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P24">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q24">
+        <v>0.002529586412333333</v>
+      </c>
+      <c r="R24">
+        <v>0.022766277711</v>
+      </c>
+      <c r="S24">
+        <v>0.005104494732253651</v>
+      </c>
+      <c r="T24">
+        <v>0.006709231948601625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.01317033333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.039511</v>
+      </c>
+      <c r="I25">
+        <v>0.02996292456829379</v>
+      </c>
+      <c r="J25">
+        <v>0.032257959170344</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6290166666666667</v>
-      </c>
-      <c r="N19">
-        <v>1.88705</v>
-      </c>
-      <c r="O19">
-        <v>0.4415315004607061</v>
-      </c>
-      <c r="P19">
-        <v>0.5025826256436589</v>
-      </c>
-      <c r="Q19">
-        <v>0.04616290415</v>
-      </c>
-      <c r="R19">
-        <v>0.41546613735</v>
-      </c>
-      <c r="S19">
-        <v>0.05434447647158131</v>
-      </c>
-      <c r="T19">
-        <v>0.06668453059269301</v>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.212851</v>
+      </c>
+      <c r="N25">
+        <v>0.638553</v>
+      </c>
+      <c r="O25">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P25">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q25">
+        <v>0.002803318620333333</v>
+      </c>
+      <c r="R25">
+        <v>0.025229867583</v>
+      </c>
+      <c r="S25">
+        <v>0.005656863533323902</v>
+      </c>
+      <c r="T25">
+        <v>0.00743525295595706</v>
       </c>
     </row>
   </sheetData>
